--- a/Management/Production_Progress_Templet.xlsx
+++ b/Management/Production_Progress_Templet.xlsx
@@ -8,14 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Production Backlog Form" sheetId="1" r:id="rId1"/>
-    <sheet name="Sprint Chart Form" sheetId="4" r:id="rId2"/>
+    <sheet name="Sprint #1 Chart" sheetId="4" r:id="rId2"/>
+    <sheet name="Sprint #2 Chart" sheetId="5" r:id="rId3"/>
+    <sheet name="Sprint #3 Chart" sheetId="6" r:id="rId4"/>
+    <sheet name="Sprint #4 Chart" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="158">
   <si>
     <t>Production Name:</t>
   </si>
@@ -476,10 +479,19 @@
     <t>Sprint 4 Targets/To Go</t>
   </si>
   <si>
-    <t>Sprint # Backlog</t>
-  </si>
-  <si>
     <t>Production Backlog</t>
+  </si>
+  <si>
+    <t>Sprint #2 Backlog</t>
+  </si>
+  <si>
+    <t>Sprint #1 Backlog</t>
+  </si>
+  <si>
+    <t>Sprint #3 Backlog</t>
+  </si>
+  <si>
+    <t>Sprint #4 Backlog</t>
   </si>
 </sst>
 </file>
@@ -591,7 +603,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1012,32 +1024,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1180,212 +1172,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1414,7 +1202,220 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1422,7 +1423,370 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="57">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1804,11 +2168,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="167898624"/>
-        <c:axId val="133946112"/>
+        <c:axId val="145825792"/>
+        <c:axId val="217061568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167898624"/>
+        <c:axId val="145825792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1817,7 +2181,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133946112"/>
+        <c:crossAx val="217061568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1825,7 +2189,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133946112"/>
+        <c:axId val="217061568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1841,7 +2205,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="167898624"/>
+        <c:crossAx val="145825792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1891,7 +2255,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Chart Form'!$E$25:$E$31</c:f>
+              <c:f>'Sprint #1 Chart'!$E$25:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1934,7 +2298,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Chart Form'!$G$25:$G$31</c:f>
+              <c:f>'Sprint #1 Chart'!$G$25:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1977,7 +2341,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Chart Form'!$D$25:$D$31</c:f>
+              <c:f>'Sprint #1 Chart'!$D$25:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2020,7 +2384,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Chart Form'!$F$25:$F$31</c:f>
+              <c:f>'Sprint #1 Chart'!$F$25:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2065,11 +2429,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="181760000"/>
-        <c:axId val="602347136"/>
+        <c:axId val="654922240"/>
+        <c:axId val="628580928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181760000"/>
+        <c:axId val="654922240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,7 +2442,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="602347136"/>
+        <c:crossAx val="628580928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2086,7 +2450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="602347136"/>
+        <c:axId val="628580928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2097,7 +2461,775 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181760000"/>
+        <c:crossAx val="654922240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Target Task Completion</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #2 Chart'!$E$25:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACDF-47F4-A593-ADC89855D2CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual Task Completion</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #2 Chart'!$G$25:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ACDF-47F4-A593-ADC89855D2CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Assigned Tasks</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #2 Chart'!$D$25:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ACDF-47F4-A593-ADC89855D2CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Completed Tasks</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #2 Chart'!$F$25:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ACDF-47F4-A593-ADC89855D2CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="660171264"/>
+        <c:axId val="660018240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="660171264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="660018240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="660018240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="660171264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Target Task Completion</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #3 Chart'!$E$25:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACDF-47F4-A593-ADC89855D2CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual Task Completion</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #3 Chart'!$G$25:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ACDF-47F4-A593-ADC89855D2CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Assigned Tasks</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #3 Chart'!$D$25:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ACDF-47F4-A593-ADC89855D2CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Completed Tasks</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #3 Chart'!$F$25:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ACDF-47F4-A593-ADC89855D2CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="49777664"/>
+        <c:axId val="628593152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="49777664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="628593152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="628593152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49777664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Target Task Completion</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #4 Chart'!$E$25:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACDF-47F4-A593-ADC89855D2CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual Task Completion</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #4 Chart'!$G$25:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ACDF-47F4-A593-ADC89855D2CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Assigned Tasks</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #4 Chart'!$D$25:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ACDF-47F4-A593-ADC89855D2CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Completed Tasks</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #4 Chart'!$F$25:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ACDF-47F4-A593-ADC89855D2CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="672605184"/>
+        <c:axId val="660019968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="672605184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="660019968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="660019968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="672605184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2139,7 +3271,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2164,13 +3296,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2180,7 +3312,136 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2490,10 +3751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P98"/>
+  <dimension ref="B1:P98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2512,81 +3773,82 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="120" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
+      <c r="B2" s="131" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="133"/>
     </row>
     <row r="3" spans="2:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="66" t="s">
+      <c r="B3" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="115"/>
+      <c r="D3" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-      <c r="J3" s="110" t="s">
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="121"/>
+      <c r="J3" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="112"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="83"/>
     </row>
     <row r="4" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="68" t="s">
+      <c r="C4" s="117"/>
+      <c r="D4" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="69"/>
-      <c r="J4" s="113" t="s">
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="123"/>
+      <c r="J4" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="115"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="74"/>
     </row>
     <row r="5" spans="2:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="70" t="s">
+      <c r="C5" s="119"/>
+      <c r="D5" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="71"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="125"/>
       <c r="J5" s="11" t="s">
         <v>66</v>
       </c>
@@ -2610,23 +3872,23 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
-      <c r="J6" s="76" t="s">
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="100"/>
+      <c r="J6" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="78"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="77"/>
       <c r="P6" s="21"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
@@ -2654,10 +3916,10 @@
       <c r="J7" s="12">
         <v>1</v>
       </c>
-      <c r="K7" s="122" t="s">
+      <c r="K7" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="L7" s="122" t="s">
+      <c r="L7" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M7" s="30"/>
@@ -2686,10 +3948,10 @@
       <c r="J8" s="12">
         <v>2</v>
       </c>
-      <c r="K8" s="122" t="s">
+      <c r="K8" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="L8" s="122" t="s">
+      <c r="L8" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M8" s="30"/>
@@ -2716,10 +3978,10 @@
       <c r="J9" s="12">
         <v>3</v>
       </c>
-      <c r="K9" s="122" t="s">
+      <c r="K9" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="L9" s="122" t="s">
+      <c r="L9" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M9" s="30"/>
@@ -2748,10 +4010,10 @@
       <c r="J10" s="12">
         <v>4</v>
       </c>
-      <c r="K10" s="122" t="s">
+      <c r="K10" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="L10" s="122" t="s">
+      <c r="L10" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M10" s="30"/>
@@ -2778,10 +4040,10 @@
       <c r="J11" s="12">
         <v>5</v>
       </c>
-      <c r="K11" s="122" t="s">
+      <c r="K11" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="L11" s="122" t="s">
+      <c r="L11" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M11" s="30"/>
@@ -2810,10 +4072,10 @@
       <c r="J12" s="12">
         <v>6</v>
       </c>
-      <c r="K12" s="122" t="s">
+      <c r="K12" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="L12" s="122" t="s">
+      <c r="L12" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M12" s="30"/>
@@ -2839,15 +4101,15 @@
       <c r="H13" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="116" t="s">
+      <c r="J13" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="123"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="55"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
@@ -2870,10 +4132,10 @@
       <c r="J14" s="12">
         <v>1</v>
       </c>
-      <c r="K14" s="122" t="s">
+      <c r="K14" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="L14" s="122" t="s">
+      <c r="L14" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M14" s="30"/>
@@ -2900,10 +4162,10 @@
       <c r="J15" s="12">
         <v>2</v>
       </c>
-      <c r="K15" s="122" t="s">
+      <c r="K15" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="L15" s="122" t="s">
+      <c r="L15" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M15" s="30"/>
@@ -2936,10 +4198,10 @@
       <c r="J16" s="12">
         <v>3</v>
       </c>
-      <c r="K16" s="122" t="s">
+      <c r="K16" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="L16" s="122" t="s">
+      <c r="L16" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M16" s="30"/>
@@ -2948,22 +4210,22 @@
       <c r="P16" s="21"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="100"/>
       <c r="J17" s="12">
         <v>4</v>
       </c>
-      <c r="K17" s="122" t="s">
+      <c r="K17" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="L17" s="122" t="s">
+      <c r="L17" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M17" s="30"/>
@@ -2972,22 +4234,22 @@
       <c r="P17" s="21"/>
     </row>
     <row r="18" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="91"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="106"/>
       <c r="J18" s="12">
         <v>5</v>
       </c>
-      <c r="K18" s="122" t="s">
+      <c r="K18" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="L18" s="122" t="s">
+      <c r="L18" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M18" s="30"/>
@@ -3020,10 +4282,10 @@
       <c r="J19" s="12">
         <v>6</v>
       </c>
-      <c r="K19" s="122" t="s">
+      <c r="K19" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="L19" s="122" t="s">
+      <c r="L19" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M19" s="30"/>
@@ -3052,15 +4314,15 @@
         <f>SUM(E20:G20)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="118" t="s">
+      <c r="J20" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="K20" s="119"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="104"/>
-      <c r="P20" s="123"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="55"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="14" t="s">
@@ -3086,10 +4348,10 @@
       <c r="J21" s="12">
         <v>1</v>
       </c>
-      <c r="K21" s="122" t="s">
+      <c r="K21" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="L21" s="122" t="s">
+      <c r="L21" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M21" s="30"/>
@@ -3121,10 +4383,10 @@
       <c r="J22" s="12">
         <v>2</v>
       </c>
-      <c r="K22" s="122" t="s">
+      <c r="K22" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="L22" s="122" t="s">
+      <c r="L22" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M22" s="30"/>
@@ -3133,20 +4395,20 @@
       <c r="P22" s="21"/>
     </row>
     <row r="23" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="94"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="109"/>
       <c r="J23" s="12">
         <v>3</v>
       </c>
-      <c r="K23" s="122" t="s">
+      <c r="K23" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="L23" s="122" t="s">
+      <c r="L23" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M23" s="30"/>
@@ -3155,22 +4417,22 @@
       <c r="P23" s="21"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="100"/>
       <c r="J24" s="12">
         <v>4</v>
       </c>
-      <c r="K24" s="122" t="s">
+      <c r="K24" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="L24" s="122" t="s">
+      <c r="L24" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M24" s="30"/>
@@ -3179,11 +4441,11 @@
       <c r="P24" s="21"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
       <c r="E25" s="10">
         <f>SUM(E28,E31,E34,E37)</f>
         <v>0</v>
@@ -3201,10 +4463,10 @@
       <c r="J25" s="12">
         <v>5</v>
       </c>
-      <c r="K25" s="122" t="s">
+      <c r="K25" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="L25" s="122" t="s">
+      <c r="L25" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M25" s="30"/>
@@ -3213,22 +4475,22 @@
       <c r="P25" s="21"/>
     </row>
     <row r="26" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="59"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="113"/>
       <c r="J26" s="13">
         <v>6</v>
       </c>
-      <c r="K26" s="124" t="s">
+      <c r="K26" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="L26" s="124" t="s">
+      <c r="L26" s="56" t="s">
         <v>97</v>
       </c>
       <c r="M26" s="29"/>
@@ -3240,33 +4502,33 @@
       <c r="B27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="72" t="s">
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="F27" s="73"/>
-      <c r="G27" s="72" t="s">
+      <c r="F27" s="94"/>
+      <c r="G27" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="82"/>
+      <c r="H27" s="110"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="113" t="s">
+      <c r="J27" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K27" s="114"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="114"/>
-      <c r="N27" s="114"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="115"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="74"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="53"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="87"/>
       <c r="E28" s="9">
         <v>0</v>
       </c>
@@ -3277,7 +4539,7 @@
       <c r="G28" s="9">
         <v>0</v>
       </c>
-      <c r="H28" s="105">
+      <c r="H28" s="52">
         <v>0</v>
       </c>
       <c r="I28" s="1"/>
@@ -3304,48 +4566,48 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="98" t="s">
+      <c r="B29" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="106"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="92"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="76" t="s">
+      <c r="J29" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="78"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="77"/>
       <c r="P29" s="21"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="83"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="72" t="s">
+      <c r="C30" s="84"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="F30" s="73"/>
-      <c r="G30" s="72" t="s">
+      <c r="F30" s="94"/>
+      <c r="G30" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="82"/>
+      <c r="H30" s="110"/>
       <c r="I30" s="1"/>
       <c r="J30" s="12">
         <v>1</v>
       </c>
-      <c r="K30" s="122" t="s">
+      <c r="K30" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="L30" s="122" t="s">
+      <c r="L30" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M30" s="30"/>
@@ -3357,8 +4619,8 @@
       <c r="B31" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="83"/>
-      <c r="D31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="85"/>
       <c r="E31" s="9">
         <v>0</v>
       </c>
@@ -3369,17 +4631,17 @@
       <c r="G31" s="9">
         <v>0</v>
       </c>
-      <c r="H31" s="105">
+      <c r="H31" s="52">
         <v>0</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="12">
         <v>2</v>
       </c>
-      <c r="K31" s="122" t="s">
+      <c r="K31" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="L31" s="122" t="s">
+      <c r="L31" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M31" s="30"/>
@@ -3388,23 +4650,23 @@
       <c r="P31" s="21"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="98" t="s">
+      <c r="B32" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="106"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="92"/>
       <c r="I32" s="1"/>
       <c r="J32" s="12">
         <v>3</v>
       </c>
-      <c r="K32" s="122" t="s">
+      <c r="K32" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="L32" s="122" t="s">
+      <c r="L32" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M32" s="30"/>
@@ -3416,24 +4678,24 @@
       <c r="B33" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="72" t="s">
+      <c r="C33" s="86"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="93" t="s">
         <v>151</v>
       </c>
-      <c r="F33" s="73"/>
-      <c r="G33" s="72" t="s">
+      <c r="F33" s="94"/>
+      <c r="G33" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="H33" s="82"/>
+      <c r="H33" s="110"/>
       <c r="I33" s="1"/>
       <c r="J33" s="12">
         <v>4</v>
       </c>
-      <c r="K33" s="122" t="s">
+      <c r="K33" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="L33" s="122" t="s">
+      <c r="L33" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M33" s="30"/>
@@ -3445,8 +4707,8 @@
       <c r="B34" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="53"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="87"/>
       <c r="E34" s="9">
         <v>0</v>
       </c>
@@ -3457,17 +4719,17 @@
       <c r="G34" s="9">
         <v>0</v>
       </c>
-      <c r="H34" s="105">
+      <c r="H34" s="52">
         <v>0</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="12">
         <v>5</v>
       </c>
-      <c r="K34" s="122" t="s">
+      <c r="K34" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="L34" s="122" t="s">
+      <c r="L34" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M34" s="30"/>
@@ -3476,23 +4738,23 @@
       <c r="P34" s="21"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B35" s="98" t="s">
+      <c r="B35" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="106"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="92"/>
       <c r="I35" s="1"/>
       <c r="J35" s="12">
         <v>6</v>
       </c>
-      <c r="K35" s="122" t="s">
+      <c r="K35" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="L35" s="122" t="s">
+      <c r="L35" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M35" s="30"/>
@@ -3504,33 +4766,33 @@
       <c r="B36" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="72" t="s">
+      <c r="C36" s="86"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="F36" s="73"/>
-      <c r="G36" s="72" t="s">
+      <c r="F36" s="94"/>
+      <c r="G36" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="H36" s="82"/>
+      <c r="H36" s="110"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="116" t="s">
+      <c r="J36" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="K36" s="117"/>
-      <c r="L36" s="117"/>
-      <c r="M36" s="117"/>
-      <c r="N36" s="117"/>
-      <c r="O36" s="103"/>
-      <c r="P36" s="123"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="80"/>
+      <c r="P36" s="55"/>
     </row>
     <row r="37" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="96"/>
-      <c r="D37" s="97"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="89"/>
       <c r="E37" s="20">
         <v>0</v>
       </c>
@@ -3541,17 +4803,17 @@
       <c r="G37" s="20">
         <v>0</v>
       </c>
-      <c r="H37" s="107">
+      <c r="H37" s="53">
         <v>0</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="12">
         <v>1</v>
       </c>
-      <c r="K37" s="122" t="s">
+      <c r="K37" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="L37" s="122" t="s">
+      <c r="L37" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M37" s="30"/>
@@ -3560,23 +4822,23 @@
       <c r="P37" s="21"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="56"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="100"/>
       <c r="I38" s="1"/>
       <c r="J38" s="12">
         <v>2</v>
       </c>
-      <c r="K38" s="122" t="s">
+      <c r="K38" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="L38" s="122" t="s">
+      <c r="L38" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M38" s="30"/>
@@ -3585,23 +4847,23 @@
       <c r="P38" s="21"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="85" t="s">
+      <c r="B39" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="108"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="97"/>
       <c r="I39" s="1"/>
       <c r="J39" s="12">
         <v>3</v>
       </c>
-      <c r="K39" s="122" t="s">
+      <c r="K39" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="L39" s="122" t="s">
+      <c r="L39" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M39" s="30"/>
@@ -3610,23 +4872,23 @@
       <c r="P39" s="21"/>
     </row>
     <row r="40" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="87" t="s">
+      <c r="B40" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="109"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="103"/>
       <c r="I40" s="1"/>
       <c r="J40" s="12">
         <v>4</v>
       </c>
-      <c r="K40" s="122" t="s">
+      <c r="K40" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="L40" s="122" t="s">
+      <c r="L40" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M40" s="30"/>
@@ -3639,10 +4901,10 @@
       <c r="J41" s="12">
         <v>5</v>
       </c>
-      <c r="K41" s="122" t="s">
+      <c r="K41" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="L41" s="122" t="s">
+      <c r="L41" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M41" s="30"/>
@@ -3655,10 +4917,10 @@
       <c r="J42" s="12">
         <v>6</v>
       </c>
-      <c r="K42" s="122" t="s">
+      <c r="K42" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="L42" s="122" t="s">
+      <c r="L42" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M42" s="30"/>
@@ -3668,25 +4930,25 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="I43" s="1"/>
-      <c r="J43" s="118" t="s">
+      <c r="J43" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="K43" s="119"/>
-      <c r="L43" s="119"/>
-      <c r="M43" s="119"/>
-      <c r="N43" s="119"/>
-      <c r="O43" s="104"/>
-      <c r="P43" s="123"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="55"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="I44" s="1"/>
       <c r="J44" s="12">
         <v>1</v>
       </c>
-      <c r="K44" s="122" t="s">
+      <c r="K44" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="L44" s="122" t="s">
+      <c r="L44" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M44" s="30"/>
@@ -3699,10 +4961,10 @@
       <c r="J45" s="12">
         <v>2</v>
       </c>
-      <c r="K45" s="122" t="s">
+      <c r="K45" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="L45" s="122" t="s">
+      <c r="L45" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M45" s="30"/>
@@ -3715,10 +4977,10 @@
       <c r="J46" s="12">
         <v>3</v>
       </c>
-      <c r="K46" s="122" t="s">
+      <c r="K46" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="L46" s="122" t="s">
+      <c r="L46" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M46" s="30"/>
@@ -3731,10 +4993,10 @@
       <c r="J47" s="12">
         <v>4</v>
       </c>
-      <c r="K47" s="122" t="s">
+      <c r="K47" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="L47" s="122" t="s">
+      <c r="L47" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M47" s="30"/>
@@ -3747,10 +5009,10 @@
       <c r="J48" s="12">
         <v>5</v>
       </c>
-      <c r="K48" s="122" t="s">
+      <c r="K48" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="L48" s="122" t="s">
+      <c r="L48" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M48" s="30"/>
@@ -3763,10 +5025,10 @@
       <c r="J49" s="13">
         <v>6</v>
       </c>
-      <c r="K49" s="124" t="s">
+      <c r="K49" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="L49" s="124" t="s">
+      <c r="L49" s="56" t="s">
         <v>97</v>
       </c>
       <c r="M49" s="29"/>
@@ -3776,15 +5038,15 @@
     </row>
     <row r="50" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I50" s="1"/>
-      <c r="J50" s="113" t="s">
+      <c r="J50" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="K50" s="114"/>
-      <c r="L50" s="114"/>
-      <c r="M50" s="114"/>
-      <c r="N50" s="114"/>
-      <c r="O50" s="114"/>
-      <c r="P50" s="115"/>
+      <c r="K50" s="73"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="73"/>
+      <c r="O50" s="73"/>
+      <c r="P50" s="74"/>
     </row>
     <row r="51" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I51" s="1"/>
@@ -3812,14 +5074,14 @@
     </row>
     <row r="52" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I52" s="1"/>
-      <c r="J52" s="76" t="s">
+      <c r="J52" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="K52" s="77"/>
-      <c r="L52" s="77"/>
-      <c r="M52" s="77"/>
-      <c r="N52" s="77"/>
-      <c r="O52" s="78"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="76"/>
+      <c r="N52" s="76"/>
+      <c r="O52" s="77"/>
       <c r="P52" s="21"/>
     </row>
     <row r="53" spans="9:16" x14ac:dyDescent="0.2">
@@ -3827,10 +5089,10 @@
       <c r="J53" s="12">
         <v>1</v>
       </c>
-      <c r="K53" s="122" t="s">
+      <c r="K53" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="L53" s="122" t="s">
+      <c r="L53" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M53" s="30"/>
@@ -3843,10 +5105,10 @@
       <c r="J54" s="12">
         <v>2</v>
       </c>
-      <c r="K54" s="122" t="s">
+      <c r="K54" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="L54" s="122" t="s">
+      <c r="L54" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M54" s="30"/>
@@ -3859,10 +5121,10 @@
       <c r="J55" s="12">
         <v>3</v>
       </c>
-      <c r="K55" s="122" t="s">
+      <c r="K55" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="L55" s="122" t="s">
+      <c r="L55" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M55" s="30"/>
@@ -3875,10 +5137,10 @@
       <c r="J56" s="12">
         <v>4</v>
       </c>
-      <c r="K56" s="122" t="s">
+      <c r="K56" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="L56" s="122" t="s">
+      <c r="L56" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M56" s="30"/>
@@ -3891,10 +5153,10 @@
       <c r="J57" s="12">
         <v>5</v>
       </c>
-      <c r="K57" s="122" t="s">
+      <c r="K57" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="L57" s="122" t="s">
+      <c r="L57" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M57" s="30"/>
@@ -3907,10 +5169,10 @@
       <c r="J58" s="12">
         <v>6</v>
       </c>
-      <c r="K58" s="122" t="s">
+      <c r="K58" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="L58" s="122" t="s">
+      <c r="L58" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M58" s="30"/>
@@ -3920,25 +5182,25 @@
     </row>
     <row r="59" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I59" s="1"/>
-      <c r="J59" s="116" t="s">
+      <c r="J59" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="K59" s="117"/>
-      <c r="L59" s="117"/>
-      <c r="M59" s="117"/>
-      <c r="N59" s="117"/>
-      <c r="O59" s="103"/>
-      <c r="P59" s="123"/>
+      <c r="K59" s="79"/>
+      <c r="L59" s="79"/>
+      <c r="M59" s="79"/>
+      <c r="N59" s="79"/>
+      <c r="O59" s="80"/>
+      <c r="P59" s="55"/>
     </row>
     <row r="60" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I60" s="1"/>
       <c r="J60" s="12">
         <v>1</v>
       </c>
-      <c r="K60" s="122" t="s">
+      <c r="K60" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="L60" s="122" t="s">
+      <c r="L60" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M60" s="30"/>
@@ -3951,10 +5213,10 @@
       <c r="J61" s="12">
         <v>2</v>
       </c>
-      <c r="K61" s="122" t="s">
+      <c r="K61" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="L61" s="122" t="s">
+      <c r="L61" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M61" s="30"/>
@@ -3967,10 +5229,10 @@
       <c r="J62" s="12">
         <v>3</v>
       </c>
-      <c r="K62" s="122" t="s">
+      <c r="K62" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="L62" s="122" t="s">
+      <c r="L62" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M62" s="30"/>
@@ -3983,10 +5245,10 @@
       <c r="J63" s="12">
         <v>4</v>
       </c>
-      <c r="K63" s="122" t="s">
+      <c r="K63" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="L63" s="122" t="s">
+      <c r="L63" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M63" s="30"/>
@@ -3999,10 +5261,10 @@
       <c r="J64" s="12">
         <v>5</v>
       </c>
-      <c r="K64" s="122" t="s">
+      <c r="K64" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="L64" s="122" t="s">
+      <c r="L64" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M64" s="30"/>
@@ -4015,10 +5277,10 @@
       <c r="J65" s="12">
         <v>6</v>
       </c>
-      <c r="K65" s="122" t="s">
+      <c r="K65" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="L65" s="122" t="s">
+      <c r="L65" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M65" s="30"/>
@@ -4028,25 +5290,25 @@
     </row>
     <row r="66" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I66" s="1"/>
-      <c r="J66" s="118" t="s">
+      <c r="J66" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="K66" s="119"/>
-      <c r="L66" s="119"/>
-      <c r="M66" s="119"/>
-      <c r="N66" s="119"/>
-      <c r="O66" s="104"/>
-      <c r="P66" s="123"/>
+      <c r="K66" s="70"/>
+      <c r="L66" s="70"/>
+      <c r="M66" s="70"/>
+      <c r="N66" s="70"/>
+      <c r="O66" s="71"/>
+      <c r="P66" s="55"/>
     </row>
     <row r="67" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I67" s="1"/>
       <c r="J67" s="12">
         <v>1</v>
       </c>
-      <c r="K67" s="122" t="s">
+      <c r="K67" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="L67" s="122" t="s">
+      <c r="L67" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M67" s="30"/>
@@ -4059,10 +5321,10 @@
       <c r="J68" s="12">
         <v>2</v>
       </c>
-      <c r="K68" s="122" t="s">
+      <c r="K68" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="L68" s="122" t="s">
+      <c r="L68" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M68" s="30"/>
@@ -4075,10 +5337,10 @@
       <c r="J69" s="12">
         <v>3</v>
       </c>
-      <c r="K69" s="122" t="s">
+      <c r="K69" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="L69" s="122" t="s">
+      <c r="L69" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M69" s="30"/>
@@ -4091,10 +5353,10 @@
       <c r="J70" s="12">
         <v>4</v>
       </c>
-      <c r="K70" s="122" t="s">
+      <c r="K70" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="L70" s="122" t="s">
+      <c r="L70" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M70" s="30"/>
@@ -4107,10 +5369,10 @@
       <c r="J71" s="12">
         <v>5</v>
       </c>
-      <c r="K71" s="122" t="s">
+      <c r="K71" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="L71" s="122" t="s">
+      <c r="L71" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M71" s="30"/>
@@ -4123,10 +5385,10 @@
       <c r="J72" s="13">
         <v>6</v>
       </c>
-      <c r="K72" s="124" t="s">
+      <c r="K72" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="L72" s="124" t="s">
+      <c r="L72" s="56" t="s">
         <v>97</v>
       </c>
       <c r="M72" s="29"/>
@@ -4136,15 +5398,15 @@
     </row>
     <row r="73" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I73" s="1"/>
-      <c r="J73" s="113" t="s">
+      <c r="J73" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="K73" s="114"/>
-      <c r="L73" s="114"/>
-      <c r="M73" s="114"/>
-      <c r="N73" s="114"/>
-      <c r="O73" s="114"/>
-      <c r="P73" s="115"/>
+      <c r="K73" s="73"/>
+      <c r="L73" s="73"/>
+      <c r="M73" s="73"/>
+      <c r="N73" s="73"/>
+      <c r="O73" s="73"/>
+      <c r="P73" s="74"/>
     </row>
     <row r="74" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I74" s="1"/>
@@ -4172,14 +5434,14 @@
     </row>
     <row r="75" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I75" s="1"/>
-      <c r="J75" s="76" t="s">
+      <c r="J75" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="K75" s="77"/>
-      <c r="L75" s="77"/>
-      <c r="M75" s="77"/>
-      <c r="N75" s="77"/>
-      <c r="O75" s="78"/>
+      <c r="K75" s="76"/>
+      <c r="L75" s="76"/>
+      <c r="M75" s="76"/>
+      <c r="N75" s="76"/>
+      <c r="O75" s="77"/>
       <c r="P75" s="21"/>
     </row>
     <row r="76" spans="9:16" x14ac:dyDescent="0.2">
@@ -4187,10 +5449,10 @@
       <c r="J76" s="12">
         <v>1</v>
       </c>
-      <c r="K76" s="122" t="s">
+      <c r="K76" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="L76" s="122" t="s">
+      <c r="L76" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M76" s="30"/>
@@ -4203,10 +5465,10 @@
       <c r="J77" s="12">
         <v>2</v>
       </c>
-      <c r="K77" s="122" t="s">
+      <c r="K77" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="L77" s="122" t="s">
+      <c r="L77" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M77" s="30"/>
@@ -4219,10 +5481,10 @@
       <c r="J78" s="12">
         <v>3</v>
       </c>
-      <c r="K78" s="122" t="s">
+      <c r="K78" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="L78" s="122" t="s">
+      <c r="L78" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M78" s="30"/>
@@ -4235,10 +5497,10 @@
       <c r="J79" s="12">
         <v>4</v>
       </c>
-      <c r="K79" s="122" t="s">
+      <c r="K79" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="L79" s="122" t="s">
+      <c r="L79" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M79" s="30"/>
@@ -4251,10 +5513,10 @@
       <c r="J80" s="12">
         <v>5</v>
       </c>
-      <c r="K80" s="122" t="s">
+      <c r="K80" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="L80" s="122" t="s">
+      <c r="L80" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M80" s="30"/>
@@ -4267,10 +5529,10 @@
       <c r="J81" s="12">
         <v>6</v>
       </c>
-      <c r="K81" s="122" t="s">
+      <c r="K81" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="L81" s="122" t="s">
+      <c r="L81" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M81" s="30"/>
@@ -4280,25 +5542,25 @@
     </row>
     <row r="82" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I82" s="1"/>
-      <c r="J82" s="116" t="s">
+      <c r="J82" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="K82" s="117"/>
-      <c r="L82" s="117"/>
-      <c r="M82" s="117"/>
-      <c r="N82" s="117"/>
-      <c r="O82" s="103"/>
-      <c r="P82" s="123"/>
+      <c r="K82" s="79"/>
+      <c r="L82" s="79"/>
+      <c r="M82" s="79"/>
+      <c r="N82" s="79"/>
+      <c r="O82" s="80"/>
+      <c r="P82" s="55"/>
     </row>
     <row r="83" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I83" s="1"/>
       <c r="J83" s="12">
         <v>1</v>
       </c>
-      <c r="K83" s="122" t="s">
+      <c r="K83" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="L83" s="122" t="s">
+      <c r="L83" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M83" s="30"/>
@@ -4311,10 +5573,10 @@
       <c r="J84" s="12">
         <v>2</v>
       </c>
-      <c r="K84" s="122" t="s">
+      <c r="K84" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="L84" s="122" t="s">
+      <c r="L84" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M84" s="30"/>
@@ -4327,10 +5589,10 @@
       <c r="J85" s="12">
         <v>3</v>
       </c>
-      <c r="K85" s="122" t="s">
+      <c r="K85" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="L85" s="122" t="s">
+      <c r="L85" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M85" s="30"/>
@@ -4343,10 +5605,10 @@
       <c r="J86" s="12">
         <v>4</v>
       </c>
-      <c r="K86" s="122" t="s">
+      <c r="K86" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="L86" s="122" t="s">
+      <c r="L86" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M86" s="30"/>
@@ -4359,10 +5621,10 @@
       <c r="J87" s="12">
         <v>5</v>
       </c>
-      <c r="K87" s="122" t="s">
+      <c r="K87" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="L87" s="122" t="s">
+      <c r="L87" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M87" s="30"/>
@@ -4375,10 +5637,10 @@
       <c r="J88" s="12">
         <v>6</v>
       </c>
-      <c r="K88" s="122" t="s">
+      <c r="K88" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="L88" s="122" t="s">
+      <c r="L88" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M88" s="30"/>
@@ -4388,25 +5650,25 @@
     </row>
     <row r="89" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I89" s="1"/>
-      <c r="J89" s="118" t="s">
+      <c r="J89" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="K89" s="119"/>
-      <c r="L89" s="119"/>
-      <c r="M89" s="119"/>
-      <c r="N89" s="119"/>
-      <c r="O89" s="104"/>
-      <c r="P89" s="123"/>
+      <c r="K89" s="70"/>
+      <c r="L89" s="70"/>
+      <c r="M89" s="70"/>
+      <c r="N89" s="70"/>
+      <c r="O89" s="71"/>
+      <c r="P89" s="55"/>
     </row>
     <row r="90" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I90" s="1"/>
       <c r="J90" s="12">
         <v>1</v>
       </c>
-      <c r="K90" s="122" t="s">
+      <c r="K90" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="L90" s="122" t="s">
+      <c r="L90" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M90" s="30"/>
@@ -4419,10 +5681,10 @@
       <c r="J91" s="12">
         <v>2</v>
       </c>
-      <c r="K91" s="122" t="s">
+      <c r="K91" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="L91" s="122" t="s">
+      <c r="L91" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M91" s="30"/>
@@ -4435,10 +5697,10 @@
       <c r="J92" s="12">
         <v>3</v>
       </c>
-      <c r="K92" s="122" t="s">
+      <c r="K92" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="L92" s="122" t="s">
+      <c r="L92" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M92" s="30"/>
@@ -4451,10 +5713,10 @@
       <c r="J93" s="12">
         <v>4</v>
       </c>
-      <c r="K93" s="122" t="s">
+      <c r="K93" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="L93" s="122" t="s">
+      <c r="L93" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M93" s="30"/>
@@ -4467,10 +5729,10 @@
       <c r="J94" s="12">
         <v>5</v>
       </c>
-      <c r="K94" s="122" t="s">
+      <c r="K94" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="L94" s="122" t="s">
+      <c r="L94" s="54" t="s">
         <v>97</v>
       </c>
       <c r="M94" s="30"/>
@@ -4480,70 +5742,73 @@
     </row>
     <row r="95" spans="9:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I95" s="1"/>
-      <c r="J95" s="125">
+      <c r="J95" s="57">
         <v>6</v>
       </c>
-      <c r="K95" s="126" t="s">
+      <c r="K95" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="L95" s="126" t="s">
+      <c r="L95" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="M95" s="127"/>
-      <c r="N95" s="127"/>
-      <c r="O95" s="127"/>
-      <c r="P95" s="128"/>
+      <c r="M95" s="59"/>
+      <c r="N95" s="59"/>
+      <c r="O95" s="59"/>
+      <c r="P95" s="60"/>
     </row>
     <row r="96" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I96" s="1"/>
-      <c r="J96" s="79" t="s">
+      <c r="J96" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="K96" s="80"/>
-      <c r="L96" s="80"/>
-      <c r="M96" s="80"/>
-      <c r="N96" s="80"/>
-      <c r="O96" s="80"/>
-      <c r="P96" s="81"/>
+      <c r="K96" s="65"/>
+      <c r="L96" s="65"/>
+      <c r="M96" s="65"/>
+      <c r="N96" s="65"/>
+      <c r="O96" s="65"/>
+      <c r="P96" s="66"/>
     </row>
     <row r="97" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I97" s="1"/>
-      <c r="J97" s="129" t="s">
+      <c r="J97" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="K97" s="130" t="s">
+      <c r="K97" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="L97" s="130"/>
-      <c r="M97" s="130"/>
-      <c r="N97" s="130"/>
-      <c r="O97" s="130"/>
-      <c r="P97" s="131"/>
+      <c r="L97" s="62"/>
+      <c r="M97" s="62"/>
+      <c r="N97" s="62"/>
+      <c r="O97" s="62"/>
+      <c r="P97" s="63"/>
     </row>
     <row r="98" spans="9:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J98" s="13"/>
-      <c r="K98" s="95"/>
-      <c r="L98" s="95"/>
-      <c r="M98" s="95"/>
-      <c r="N98" s="95"/>
-      <c r="O98" s="95"/>
-      <c r="P98" s="132"/>
+      <c r="K98" s="67"/>
+      <c r="L98" s="67"/>
+      <c r="M98" s="67"/>
+      <c r="N98" s="67"/>
+      <c r="O98" s="67"/>
+      <c r="P98" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="K97:P97"/>
-    <mergeCell ref="J96:P96"/>
-    <mergeCell ref="K98:P98"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="J43:O43"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B26:H26"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C37:D37"/>
@@ -4556,6 +5821,26 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="K97:P97"/>
+    <mergeCell ref="J96:P96"/>
+    <mergeCell ref="K98:P98"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="J43:O43"/>
     <mergeCell ref="J82:O82"/>
     <mergeCell ref="J89:O89"/>
     <mergeCell ref="J59:O59"/>
@@ -4564,46 +5849,23 @@
     <mergeCell ref="J75:O75"/>
     <mergeCell ref="J52:O52"/>
     <mergeCell ref="J50:P50"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <conditionalFormatting sqref="H20:H22">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="between">
       <formula>1</formula>
       <formula>0.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="3" operator="greaterThan">
       <formula>100%</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="16" operator="lessThan">
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="53" priority="17" operator="between">
       <formula>0.89</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="21" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="21" operator="greaterThanOrEqual">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4615,76 +5877,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S31"/>
+  <dimension ref="B1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="25" customWidth="1"/>
     <col min="2" max="7" width="15.7109375" style="25" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="5.28515625" style="26" customWidth="1"/>
-    <col min="19" max="19" width="63.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="1.7109375" style="25" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="25"/>
+    <col min="8" max="8" width="1.7109375" style="25" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="5.28515625" style="26" customWidth="1"/>
+    <col min="20" max="20" width="63.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.7109375" style="25" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="100" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="102"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="79" t="s">
+    <row r="1" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:20" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="128" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="130"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="79" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="81"/>
-      <c r="H3" s="79" t="s">
+      <c r="E3" s="65"/>
+      <c r="F3" s="66"/>
+      <c r="I3" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="81"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="66"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
         <v>90</v>
       </c>
@@ -4700,44 +5964,44 @@
       <c r="F4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="J4" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="K4" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="L4" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="M4" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="N4" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="O4" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="O4" s="28" t="s">
+      <c r="P4" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="P4" s="28" t="s">
+      <c r="Q4" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="Q4" s="28" t="s">
+      <c r="R4" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="R4" s="28" t="s">
+      <c r="S4" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="T4" s="23" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
         <v>60</v>
       </c>
@@ -4751,24 +6015,24 @@
       <c r="F5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="I5" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="27"/>
+      <c r="K5" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="27"/>
       <c r="L5" s="27"/>
       <c r="M5" s="27"/>
       <c r="N5" s="27"/>
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
       <c r="Q5" s="27"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="36"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R5" s="27"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="36"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="35" t="s">
         <v>61</v>
       </c>
@@ -4782,24 +6046,24 @@
       <c r="F6" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="I6" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="27"/>
+      <c r="K6" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="27"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="36"/>
-    </row>
-    <row r="7" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R6" s="27"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="36"/>
+    </row>
+    <row r="7" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="37" t="s">
         <v>91</v>
       </c>
@@ -4813,28 +6077,28 @@
       <c r="F7" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="I7" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="27"/>
+      <c r="K7" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="27"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27"/>
       <c r="N7" s="27"/>
       <c r="O7" s="27"/>
       <c r="P7" s="27"/>
       <c r="Q7" s="27"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="36"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="79" t="s">
+      <c r="R7" s="27"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="36"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="81"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="40" t="s">
         <v>16</v>
       </c>
@@ -4844,24 +6108,24 @@
       <c r="F8" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="I8" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="27"/>
+      <c r="K8" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="27"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
       <c r="Q8" s="27"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="36"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R8" s="27"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="36"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="35" t="s">
         <v>93</v>
       </c>
@@ -4877,24 +6141,24 @@
       <c r="F9" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="I9" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="27"/>
+      <c r="K9" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="27"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
       <c r="O9" s="27"/>
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="36"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R9" s="27"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="36"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="35" t="s">
         <v>94</v>
       </c>
@@ -4910,24 +6174,24 @@
       <c r="F10" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="I10" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="27"/>
+      <c r="K10" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="27"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
       <c r="N10" s="27"/>
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
       <c r="Q10" s="27"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="36"/>
-    </row>
-    <row r="11" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R10" s="27"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="36"/>
+    </row>
+    <row r="11" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="37" t="s">
         <v>95</v>
       </c>
@@ -4943,28 +6207,28 @@
       <c r="F11" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="I11" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="27"/>
+      <c r="K11" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="27"/>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
       <c r="N11" s="27"/>
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
       <c r="Q11" s="27"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="36"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="79" t="s">
+      <c r="R11" s="27"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="36"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="81"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="40" t="s">
         <v>24</v>
       </c>
@@ -4974,24 +6238,24 @@
       <c r="F12" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="I12" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="27"/>
+      <c r="K12" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="27"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
       <c r="N12" s="27"/>
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
       <c r="Q12" s="27"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="36"/>
-    </row>
-    <row r="13" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R12" s="27"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="36"/>
+    </row>
+    <row r="13" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="35" t="s">
         <v>98</v>
       </c>
@@ -5007,248 +6271,249 @@
       <c r="F13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="40" t="s">
+      <c r="I13" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="27"/>
+      <c r="K13" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
       <c r="N13" s="27"/>
       <c r="O13" s="27"/>
       <c r="P13" s="27"/>
       <c r="Q13" s="27"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="36"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R13" s="27"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="36"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="35" t="s">
         <v>99</v>
       </c>
       <c r="C14" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="I14" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="27"/>
+      <c r="K14" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
       <c r="O14" s="27"/>
       <c r="P14" s="27"/>
       <c r="Q14" s="27"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="36"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R14" s="27"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="36"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="35" t="s">
         <v>100</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="I15" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="27"/>
+      <c r="K15" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
       <c r="O15" s="27"/>
       <c r="P15" s="27"/>
       <c r="Q15" s="27"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="36"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R15" s="27"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="36"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="35" t="s">
         <v>101</v>
       </c>
       <c r="C16" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="I16" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="27"/>
+      <c r="K16" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="27"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="36"/>
-    </row>
-    <row r="17" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R16" s="27"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="36"/>
+    </row>
+    <row r="17" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="37" t="s">
         <v>102</v>
       </c>
       <c r="C17" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="40" t="s">
+      <c r="I17" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="27"/>
+      <c r="K17" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
       <c r="O17" s="27"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="27"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="36"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="79" t="s">
+      <c r="R17" s="27"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="36"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="H18" s="40" t="s">
+      <c r="C18" s="66"/>
+      <c r="I18" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27" t="s">
+      <c r="J18" s="27"/>
+      <c r="K18" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="K18" s="27"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
       <c r="O18" s="27"/>
       <c r="P18" s="27"/>
       <c r="Q18" s="27"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="36"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R18" s="27"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="36"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="35" t="s">
         <v>110</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="I19" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27" t="s">
+      <c r="J19" s="27"/>
+      <c r="K19" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="K19" s="27"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
       <c r="O19" s="27"/>
       <c r="P19" s="27"/>
       <c r="Q19" s="27"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="36"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R19" s="27"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="36"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="35" t="s">
         <v>105</v>
       </c>
       <c r="C20" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="40" t="s">
+      <c r="I20" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="27"/>
+      <c r="K20" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="27"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
       <c r="O20" s="27"/>
       <c r="P20" s="27"/>
       <c r="Q20" s="27"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="36"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R20" s="27"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="36"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="35" t="s">
         <v>104</v>
       </c>
       <c r="C21" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="40" t="s">
+      <c r="I21" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27" t="s">
+      <c r="J21" s="27"/>
+      <c r="K21" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="27"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
       <c r="O21" s="27"/>
       <c r="P21" s="27"/>
       <c r="Q21" s="27"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="36"/>
-    </row>
-    <row r="22" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R21" s="27"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="36"/>
+    </row>
+    <row r="22" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="46" t="s">
         <v>111</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="42" t="s">
+      <c r="I22" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43" t="s">
+      <c r="J22" s="43"/>
+      <c r="K22" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="K22" s="43"/>
       <c r="L22" s="43"/>
       <c r="M22" s="43"/>
       <c r="N22" s="43"/>
       <c r="O22" s="43"/>
       <c r="P22" s="43"/>
       <c r="Q22" s="43"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="39"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="79" t="s">
+      <c r="R22" s="43"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="39"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="81"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="135"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
         <v>114</v>
       </c>
@@ -5267,36 +6532,38 @@
       <c r="G24" s="23" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H24" s="135"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="40">
         <v>1</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="27">
-        <f>COUNTIF($M$5:$M$22,B25)</f>
+        <f>COUNTIF($N$5:$N$22,B25)</f>
         <v>0</v>
       </c>
       <c r="E25" s="27">
-        <f>(COUNTA(H5:H22)-COUNTBLANK(I5:I22))-D25</f>
+        <f>(COUNTA(I5:I22)-COUNTBLANK(J5:J22))-D25</f>
         <v>0</v>
       </c>
       <c r="F25" s="27">
-        <f>COUNTIFS($R$5:$R$22,"O",$M$5:$M$22,B25)</f>
+        <f>COUNTIFS($S$5:$S$22,"O",$N$5:$N$22,B25)</f>
         <v>0</v>
       </c>
       <c r="G25" s="41">
-        <f>(COUNTA(H5:H22)-COUNTBLANK(I5:I22)) - F25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+        <f>(COUNTA(I5:I22)-COUNTBLANK(J5:J22)) - F25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="134"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="40">
         <v>2</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="27">
-        <f t="shared" ref="D26:D31" si="0">COUNTIF($M$5:$M$22,B26)</f>
+        <f t="shared" ref="D26:D31" si="0">COUNTIF($N$5:$N$22,B26)</f>
         <v>0</v>
       </c>
       <c r="E26" s="27">
@@ -5304,15 +6571,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="27">
-        <f>COUNTIFS($R$5:$R$22,"O",$M$5:$M$22,B26)</f>
+        <f>COUNTIFS($S$5:$S$22,"O",$N$5:$N$22,B26)</f>
         <v>0</v>
       </c>
       <c r="G26" s="41">
         <f>G25-F26</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H26" s="134"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="40">
         <v>3</v>
       </c>
@@ -5326,15 +6594,16 @@
         <v>0</v>
       </c>
       <c r="F27" s="27">
-        <f t="shared" ref="F27:F31" si="2">COUNTIFS($R$5:$R$22,"O",$M$5:$M$22,B27)</f>
+        <f t="shared" ref="F27:F31" si="2">COUNTIFS($S$5:$S$22,"O",$N$5:$N$22,B27)</f>
         <v>0</v>
       </c>
       <c r="G27" s="41">
         <f t="shared" ref="G27:G31" si="3">G26-F27</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H27" s="134"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="40">
         <v>4</v>
       </c>
@@ -5355,8 +6624,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H28" s="134"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="40">
         <v>5</v>
       </c>
@@ -5377,8 +6647,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H29" s="134"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="40">
         <v>6</v>
       </c>
@@ -5399,8 +6670,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="134"/>
+    </row>
+    <row r="31" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="42">
         <v>7</v>
       </c>
@@ -5421,71 +6693,72 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="H31" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="B2:T2"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:S3"/>
+    <mergeCell ref="I3:T3"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B12:C12"/>
   </mergeCells>
-  <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="O">
-      <formula>NOT(ISERROR(SEARCH("O",N1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="O1 O3:O1048576">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="O">
+    <cfRule type="containsText" dxfId="51" priority="13" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1 R3:R1048576">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="O">
-      <formula>NOT(ISERROR(SEARCH("O",R1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:Q1 P3:Q1048576">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="O">
+  <conditionalFormatting sqref="P1 P3:P1048576">
+    <cfRule type="containsText" dxfId="50" priority="12" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",P1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1 L3:L1048576">
-    <cfRule type="endsWith" dxfId="8" priority="9" operator="endsWith" text="?">
-      <formula>RIGHT(L1,LEN("?"))="?"</formula>
+  <conditionalFormatting sqref="S1 S3:S1048576">
+    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",S1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1 J3:J1048576">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="QA">
-      <formula>NOT(ISERROR(SEARCH("QA",J1)))</formula>
+  <conditionalFormatting sqref="Q1:R1 Q3:R1048576">
+    <cfRule type="containsText" dxfId="48" priority="10" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",Q1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="BE">
-      <formula>NOT(ISERROR(SEARCH("BE",J1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="FE">
-      <formula>NOT(ISERROR(SEARCH("FE",J1)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1 M3:M1048576">
+    <cfRule type="endsWith" dxfId="47" priority="9" operator="endsWith" text="?">
+      <formula>RIGHT(M1,LEN("?"))="?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1 K3:K1048576">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="TS">
-      <formula>NOT(ISERROR(SEARCH("TS",K1)))</formula>
+    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="QA">
+      <formula>NOT(ISERROR(SEARCH("QA",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="DB">
-      <formula>NOT(ISERROR(SEARCH("DB",K1)))</formula>
+    <cfRule type="containsText" dxfId="45" priority="7" operator="containsText" text="BE">
+      <formula>NOT(ISERROR(SEARCH("BE",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="ED">
-      <formula>NOT(ISERROR(SEARCH("ED",K1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="PR">
-      <formula>NOT(ISERROR(SEARCH("PR",K1)))</formula>
+    <cfRule type="containsText" dxfId="44" priority="8" operator="containsText" text="FE">
+      <formula>NOT(ISERROR(SEARCH("FE",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1 M3:M1048576">
-    <cfRule type="beginsWith" dxfId="0" priority="1" operator="beginsWith" text="?">
-      <formula>LEFT(M1,LEN("?"))="?"</formula>
+  <conditionalFormatting sqref="L1 L3:L1048576">
+    <cfRule type="containsText" dxfId="43" priority="2" operator="containsText" text="TS">
+      <formula>NOT(ISERROR(SEARCH("TS",L1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="3" operator="containsText" text="DB">
+      <formula>NOT(ISERROR(SEARCH("DB",L1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="4" operator="containsText" text="ED">
+      <formula>NOT(ISERROR(SEARCH("ED",L1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="5" operator="containsText" text="PR">
+      <formula>NOT(ISERROR(SEARCH("PR",L1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1 N3:N1048576">
+    <cfRule type="beginsWith" dxfId="39" priority="1" operator="beginsWith" text="?">
+      <formula>LEFT(N1,LEN("?"))="?"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5495,4 +6768,2680 @@
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:T31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="25" customWidth="1"/>
+    <col min="2" max="7" width="15.7109375" style="25" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" style="25" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="5.28515625" style="26" customWidth="1"/>
+    <col min="20" max="20" width="63.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.7109375" style="25" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:20" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="128" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="130"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="65"/>
+      <c r="F3" s="66"/>
+      <c r="I3" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="66"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="36">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="S4" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="T4" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="36"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="36"/>
+    </row>
+    <row r="7" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="36"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="66"/>
+      <c r="D8" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="36"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="36"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="36"/>
+    </row>
+    <row r="11" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="36"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="66"/>
+      <c r="D12" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="36"/>
+    </row>
+    <row r="13" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="36"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="36"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="36"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="36"/>
+    </row>
+    <row r="17" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="36"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="66"/>
+      <c r="I18" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="36"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="36"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="36"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="36"/>
+    </row>
+    <row r="22" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="39"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="135"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="135"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="40">
+        <v>1</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27">
+        <f>COUNTIF($N$5:$N$22,B25)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="27">
+        <f>(COUNTA(I5:I22)-COUNTBLANK(J5:J22))-D25</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="27">
+        <f>COUNTIFS($S$5:$S$22,"O",$N$5:$N$22,B25)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="41">
+        <f>(COUNTA(I5:I22)-COUNTBLANK(J5:J22)) - F25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="134"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="40">
+        <v>2</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27">
+        <f t="shared" ref="D26:D31" si="0">COUNTIF($N$5:$N$22,B26)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="27">
+        <f>E25-D26</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="27">
+        <f>COUNTIFS($S$5:$S$22,"O",$N$5:$N$22,B26)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="41">
+        <f>G25-F26</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="134"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="40">
+        <v>3</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="27">
+        <f t="shared" ref="E27:E31" si="1">E26-D27</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="27">
+        <f t="shared" ref="F27:F31" si="2">COUNTIFS($S$5:$S$22,"O",$N$5:$N$22,B27)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="41">
+        <f t="shared" ref="G27:G31" si="3">G26-F27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="134"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="40">
+        <v>4</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="134"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="40">
+        <v>5</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="134"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="40">
+        <v>6</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="134"/>
+    </row>
+    <row r="31" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="42">
+        <v>7</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="134"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B2:T2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="I3:T3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="O1 O3:O1048576">
+    <cfRule type="containsText" dxfId="38" priority="13" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",O1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1 P3:P1048576">
+    <cfRule type="containsText" dxfId="37" priority="12" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",P1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1 S3:S1048576">
+    <cfRule type="containsText" dxfId="36" priority="11" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",S1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:R1 Q3:R1048576">
+    <cfRule type="containsText" dxfId="35" priority="10" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",Q1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1 M3:M1048576">
+    <cfRule type="endsWith" dxfId="34" priority="9" operator="endsWith" text="?">
+      <formula>RIGHT(M1,LEN("?"))="?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1 K3:K1048576">
+    <cfRule type="containsText" dxfId="33" priority="6" operator="containsText" text="QA">
+      <formula>NOT(ISERROR(SEARCH("QA",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="BE">
+      <formula>NOT(ISERROR(SEARCH("BE",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="8" operator="containsText" text="FE">
+      <formula>NOT(ISERROR(SEARCH("FE",K1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1 L3:L1048576">
+    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="TS">
+      <formula>NOT(ISERROR(SEARCH("TS",L1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="DB">
+      <formula>NOT(ISERROR(SEARCH("DB",L1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="ED">
+      <formula>NOT(ISERROR(SEARCH("ED",L1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="PR">
+      <formula>NOT(ISERROR(SEARCH("PR",L1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1 N3:N1048576">
+    <cfRule type="beginsWith" dxfId="26" priority="1" operator="beginsWith" text="?">
+      <formula>LEFT(N1,LEN("?"))="?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:T31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="25" customWidth="1"/>
+    <col min="2" max="7" width="15.7109375" style="25" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" style="25" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="5.28515625" style="26" customWidth="1"/>
+    <col min="20" max="20" width="63.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.7109375" style="25" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:20" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="128" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="130"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="65"/>
+      <c r="F3" s="66"/>
+      <c r="I3" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="66"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="36">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="S4" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="T4" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="36"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="36"/>
+    </row>
+    <row r="7" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="36"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="66"/>
+      <c r="D8" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="36"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="36"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="36"/>
+    </row>
+    <row r="11" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="36"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="66"/>
+      <c r="D12" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="36"/>
+    </row>
+    <row r="13" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="36"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="36"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="36"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="36"/>
+    </row>
+    <row r="17" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="36"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="66"/>
+      <c r="I18" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="36"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="36"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="36"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="36"/>
+    </row>
+    <row r="22" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="39"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="135"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="135"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="40">
+        <v>1</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27">
+        <f>COUNTIF($N$5:$N$22,B25)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="27">
+        <f>(COUNTA(I5:I22)-COUNTBLANK(J5:J22))-D25</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="27">
+        <f>COUNTIFS($S$5:$S$22,"O",$N$5:$N$22,B25)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="41">
+        <f>(COUNTA(I5:I22)-COUNTBLANK(J5:J22)) - F25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="134"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="40">
+        <v>2</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27">
+        <f t="shared" ref="D26:D31" si="0">COUNTIF($N$5:$N$22,B26)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="27">
+        <f>E25-D26</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="27">
+        <f>COUNTIFS($S$5:$S$22,"O",$N$5:$N$22,B26)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="41">
+        <f>G25-F26</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="134"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="40">
+        <v>3</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="27">
+        <f t="shared" ref="E27:E31" si="1">E26-D27</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="27">
+        <f t="shared" ref="F27:F31" si="2">COUNTIFS($S$5:$S$22,"O",$N$5:$N$22,B27)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="41">
+        <f t="shared" ref="G27:G31" si="3">G26-F27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="134"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="40">
+        <v>4</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="134"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="40">
+        <v>5</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="134"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="40">
+        <v>6</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="134"/>
+    </row>
+    <row r="31" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="42">
+        <v>7</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="134"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B2:T2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="I3:T3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="O1 O3:O1048576">
+    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",O1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1 P3:P1048576">
+    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",P1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1 S3:S1048576">
+    <cfRule type="containsText" dxfId="23" priority="11" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",S1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:R1 Q3:R1048576">
+    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",Q1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1 M3:M1048576">
+    <cfRule type="endsWith" dxfId="21" priority="9" operator="endsWith" text="?">
+      <formula>RIGHT(M1,LEN("?"))="?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1 K3:K1048576">
+    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="QA">
+      <formula>NOT(ISERROR(SEARCH("QA",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="BE">
+      <formula>NOT(ISERROR(SEARCH("BE",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="FE">
+      <formula>NOT(ISERROR(SEARCH("FE",K1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1 L3:L1048576">
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="TS">
+      <formula>NOT(ISERROR(SEARCH("TS",L1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="DB">
+      <formula>NOT(ISERROR(SEARCH("DB",L1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="ED">
+      <formula>NOT(ISERROR(SEARCH("ED",L1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="PR">
+      <formula>NOT(ISERROR(SEARCH("PR",L1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1 N3:N1048576">
+    <cfRule type="beginsWith" dxfId="13" priority="1" operator="beginsWith" text="?">
+      <formula>LEFT(N1,LEN("?"))="?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:T31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="25" customWidth="1"/>
+    <col min="2" max="7" width="15.7109375" style="25" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" style="25" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="5.28515625" style="26" customWidth="1"/>
+    <col min="20" max="20" width="63.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.7109375" style="25" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:20" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="128" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="130"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="65"/>
+      <c r="F3" s="66"/>
+      <c r="I3" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="66"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="36">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="S4" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="T4" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="36"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="36"/>
+    </row>
+    <row r="7" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="36"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="66"/>
+      <c r="D8" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="36"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="36"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="36"/>
+    </row>
+    <row r="11" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="36"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="66"/>
+      <c r="D12" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="36"/>
+    </row>
+    <row r="13" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="36"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="36"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="36"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="36"/>
+    </row>
+    <row r="17" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="36"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="66"/>
+      <c r="I18" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="36"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="36"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="36"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="36"/>
+    </row>
+    <row r="22" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="39"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="135"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="135"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="40">
+        <v>1</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27">
+        <f>COUNTIF($N$5:$N$22,B25)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="27">
+        <f>(COUNTA(I5:I22)-COUNTBLANK(J5:J22))-D25</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="27">
+        <f>COUNTIFS($S$5:$S$22,"O",$N$5:$N$22,B25)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="41">
+        <f>(COUNTA(I5:I22)-COUNTBLANK(J5:J22)) - F25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="134"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="40">
+        <v>2</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27">
+        <f t="shared" ref="D26:D31" si="0">COUNTIF($N$5:$N$22,B26)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="27">
+        <f>E25-D26</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="27">
+        <f>COUNTIFS($S$5:$S$22,"O",$N$5:$N$22,B26)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="41">
+        <f>G25-F26</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="134"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="40">
+        <v>3</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="27">
+        <f t="shared" ref="E27:E31" si="1">E26-D27</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="27">
+        <f t="shared" ref="F27:F31" si="2">COUNTIFS($S$5:$S$22,"O",$N$5:$N$22,B27)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="41">
+        <f t="shared" ref="G27:G31" si="3">G26-F27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="134"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="40">
+        <v>4</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="134"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="40">
+        <v>5</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="134"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="40">
+        <v>6</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="134"/>
+    </row>
+    <row r="31" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="42">
+        <v>7</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="134"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B2:T2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="I3:T3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="O1 O3:O1048576">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",O1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1 P3:P1048576">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",P1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1 S3:S1048576">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",S1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:R1 Q3:R1048576">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",Q1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1 M3:M1048576">
+    <cfRule type="endsWith" dxfId="8" priority="9" operator="endsWith" text="?">
+      <formula>RIGHT(M1,LEN("?"))="?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1 K3:K1048576">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="QA">
+      <formula>NOT(ISERROR(SEARCH("QA",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="BE">
+      <formula>NOT(ISERROR(SEARCH("BE",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="FE">
+      <formula>NOT(ISERROR(SEARCH("FE",K1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1 L3:L1048576">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="TS">
+      <formula>NOT(ISERROR(SEARCH("TS",L1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="DB">
+      <formula>NOT(ISERROR(SEARCH("DB",L1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="ED">
+      <formula>NOT(ISERROR(SEARCH("ED",L1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="PR">
+      <formula>NOT(ISERROR(SEARCH("PR",L1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1 N3:N1048576">
+    <cfRule type="beginsWith" dxfId="0" priority="1" operator="beginsWith" text="?">
+      <formula>LEFT(N1,LEN("?"))="?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Management/Production_Progress_Templet.xlsx
+++ b/Management/Production_Progress_Templet.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repositories\GDC2017Project\Management\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="12315"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Production Backlog Form" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,7 @@
     <sheet name="Sprint #3 Chart" sheetId="6" r:id="rId4"/>
     <sheet name="Sprint #4 Chart" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -497,7 +502,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1196,6 +1201,189 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1226,174 +1414,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1401,21 +1421,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1972,7 +1977,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2001,7 +2006,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2041,7 +2045,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D942-4F2E-B310-17B0B8FA8B33}"/>
             </c:ext>
@@ -2078,7 +2082,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D942-4F2E-B310-17B0B8FA8B33}"/>
             </c:ext>
@@ -2115,7 +2119,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D942-4F2E-B310-17B0B8FA8B33}"/>
             </c:ext>
@@ -2152,7 +2156,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D942-4F2E-B310-17B0B8FA8B33}"/>
             </c:ext>
@@ -2212,7 +2216,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2228,7 +2231,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2284,7 +2287,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ACDF-47F4-A593-ADC89855D2CF}"/>
             </c:ext>
@@ -2327,7 +2330,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-ACDF-47F4-A593-ADC89855D2CF}"/>
             </c:ext>
@@ -2370,7 +2373,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-ACDF-47F4-A593-ADC89855D2CF}"/>
             </c:ext>
@@ -2413,7 +2416,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-ACDF-47F4-A593-ADC89855D2CF}"/>
             </c:ext>
@@ -2468,7 +2471,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2484,7 +2486,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2540,7 +2542,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ACDF-47F4-A593-ADC89855D2CF}"/>
             </c:ext>
@@ -2583,7 +2585,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-ACDF-47F4-A593-ADC89855D2CF}"/>
             </c:ext>
@@ -2626,7 +2628,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-ACDF-47F4-A593-ADC89855D2CF}"/>
             </c:ext>
@@ -2669,7 +2671,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-ACDF-47F4-A593-ADC89855D2CF}"/>
             </c:ext>
@@ -2724,7 +2726,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2740,7 +2741,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2796,7 +2797,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ACDF-47F4-A593-ADC89855D2CF}"/>
             </c:ext>
@@ -2839,7 +2840,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-ACDF-47F4-A593-ADC89855D2CF}"/>
             </c:ext>
@@ -2882,7 +2883,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-ACDF-47F4-A593-ADC89855D2CF}"/>
             </c:ext>
@@ -2925,7 +2926,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-ACDF-47F4-A593-ADC89855D2CF}"/>
             </c:ext>
@@ -2980,7 +2981,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2996,7 +2996,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3052,7 +3052,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ACDF-47F4-A593-ADC89855D2CF}"/>
             </c:ext>
@@ -3095,7 +3095,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-ACDF-47F4-A593-ADC89855D2CF}"/>
             </c:ext>
@@ -3138,7 +3138,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-ACDF-47F4-A593-ADC89855D2CF}"/>
             </c:ext>
@@ -3181,7 +3181,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-ACDF-47F4-A593-ADC89855D2CF}"/>
             </c:ext>
@@ -3236,7 +3236,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3271,7 +3270,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3312,7 +3311,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3355,7 +3354,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3398,7 +3397,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3441,7 +3440,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3507,7 +3506,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3540,9 +3539,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3575,6 +3591,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3753,8 +3786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3775,80 +3808,80 @@
   <sheetData>
     <row r="1" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="133"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="98"/>
     </row>
     <row r="3" spans="2:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="120" t="s">
+      <c r="B3" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="112"/>
+      <c r="D3" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="121"/>
-      <c r="J3" s="81" t="s">
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="118"/>
+      <c r="J3" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="83"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="101"/>
     </row>
     <row r="4" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="122" t="s">
+      <c r="C4" s="114"/>
+      <c r="D4" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="123"/>
-      <c r="J4" s="72" t="s">
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="120"/>
+      <c r="J4" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="74"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="104"/>
     </row>
     <row r="5" spans="2:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="119"/>
-      <c r="D5" s="124" t="s">
+      <c r="C5" s="116"/>
+      <c r="D5" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="125"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="122"/>
       <c r="J5" s="11" t="s">
         <v>66</v>
       </c>
@@ -3872,23 +3905,23 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="100"/>
-      <c r="J6" s="75" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
+      <c r="J6" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="77"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="107"/>
       <c r="P6" s="21"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
@@ -4101,14 +4134,14 @@
       <c r="H13" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="78" t="s">
+      <c r="J13" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="80"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="110"/>
       <c r="P13" s="55"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
@@ -4210,15 +4243,15 @@
       <c r="P16" s="21"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="100"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="66"/>
       <c r="J17" s="12">
         <v>4</v>
       </c>
@@ -4234,15 +4267,15 @@
       <c r="P17" s="21"/>
     </row>
     <row r="18" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="106"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="81"/>
       <c r="J18" s="12">
         <v>5</v>
       </c>
@@ -4314,14 +4347,14 @@
         <f>SUM(E20:G20)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="69" t="s">
+      <c r="J20" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="71"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="131"/>
+      <c r="M20" s="131"/>
+      <c r="N20" s="131"/>
+      <c r="O20" s="132"/>
       <c r="P20" s="55"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
@@ -4395,13 +4428,13 @@
       <c r="P22" s="21"/>
     </row>
     <row r="23" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="107"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="109"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="84"/>
       <c r="J23" s="12">
         <v>3</v>
       </c>
@@ -4417,15 +4450,15 @@
       <c r="P23" s="21"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="100"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="66"/>
       <c r="J24" s="12">
         <v>4</v>
       </c>
@@ -4441,11 +4474,11 @@
       <c r="P24" s="21"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="126" t="s">
+      <c r="B25" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
       <c r="E25" s="10">
         <f>SUM(E28,E31,E34,E37)</f>
         <v>0</v>
@@ -4475,15 +4508,15 @@
       <c r="P25" s="21"/>
     </row>
     <row r="26" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="111" t="s">
+      <c r="B26" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="113"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="88"/>
       <c r="J26" s="13">
         <v>6</v>
       </c>
@@ -4502,33 +4535,33 @@
       <c r="B27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="86"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="93" t="s">
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="F27" s="94"/>
-      <c r="G27" s="93" t="s">
+      <c r="F27" s="70"/>
+      <c r="G27" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="110"/>
+      <c r="H27" s="85"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="72" t="s">
+      <c r="J27" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="74"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="104"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="86"/>
-      <c r="D28" s="87"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
       <c r="E28" s="9">
         <v>0</v>
       </c>
@@ -4566,40 +4599,40 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="92"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="95"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="75" t="s">
+      <c r="J29" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="77"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="106"/>
+      <c r="N29" s="106"/>
+      <c r="O29" s="107"/>
       <c r="P29" s="21"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="84"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="93" t="s">
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="69" t="s">
         <v>150</v>
       </c>
-      <c r="F30" s="94"/>
-      <c r="G30" s="93" t="s">
+      <c r="F30" s="70"/>
+      <c r="G30" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="110"/>
+      <c r="H30" s="85"/>
       <c r="I30" s="1"/>
       <c r="J30" s="12">
         <v>1</v>
@@ -4619,8 +4652,8 @@
       <c r="B31" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="84"/>
-      <c r="D31" s="85"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="90"/>
       <c r="E31" s="9">
         <v>0</v>
       </c>
@@ -4650,15 +4683,15 @@
       <c r="P31" s="21"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="90" t="s">
+      <c r="B32" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="92"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="95"/>
       <c r="I32" s="1"/>
       <c r="J32" s="12">
         <v>3</v>
@@ -4678,16 +4711,16 @@
       <c r="B33" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="86"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="93" t="s">
+      <c r="C33" s="67"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="F33" s="94"/>
-      <c r="G33" s="93" t="s">
+      <c r="F33" s="70"/>
+      <c r="G33" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="H33" s="110"/>
+      <c r="H33" s="85"/>
       <c r="I33" s="1"/>
       <c r="J33" s="12">
         <v>4</v>
@@ -4707,8 +4740,8 @@
       <c r="B34" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="86"/>
-      <c r="D34" s="87"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="68"/>
       <c r="E34" s="9">
         <v>0</v>
       </c>
@@ -4738,15 +4771,15 @@
       <c r="P34" s="21"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="92"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="95"/>
       <c r="I35" s="1"/>
       <c r="J35" s="12">
         <v>6</v>
@@ -4766,33 +4799,33 @@
       <c r="B36" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="86"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="93" t="s">
+      <c r="C36" s="67"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="F36" s="94"/>
-      <c r="G36" s="93" t="s">
+      <c r="F36" s="70"/>
+      <c r="G36" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="H36" s="110"/>
+      <c r="H36" s="85"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="78" t="s">
+      <c r="J36" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="80"/>
+      <c r="K36" s="109"/>
+      <c r="L36" s="109"/>
+      <c r="M36" s="109"/>
+      <c r="N36" s="109"/>
+      <c r="O36" s="110"/>
       <c r="P36" s="55"/>
     </row>
     <row r="37" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="88"/>
-      <c r="D37" s="89"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="92"/>
       <c r="E37" s="20">
         <v>0</v>
       </c>
@@ -4822,15 +4855,15 @@
       <c r="P37" s="21"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="98" t="s">
+      <c r="B38" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="100"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="66"/>
       <c r="I38" s="1"/>
       <c r="J38" s="12">
         <v>2</v>
@@ -4847,15 +4880,15 @@
       <c r="P38" s="21"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="95" t="s">
+      <c r="B39" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="97"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="75"/>
       <c r="I39" s="1"/>
       <c r="J39" s="12">
         <v>3</v>
@@ -4872,15 +4905,15 @@
       <c r="P39" s="21"/>
     </row>
     <row r="40" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="101" t="s">
+      <c r="B40" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="102"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="103"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="78"/>
       <c r="I40" s="1"/>
       <c r="J40" s="12">
         <v>4</v>
@@ -4930,14 +4963,14 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="I43" s="1"/>
-      <c r="J43" s="69" t="s">
+      <c r="J43" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="K43" s="70"/>
-      <c r="L43" s="70"/>
-      <c r="M43" s="70"/>
-      <c r="N43" s="70"/>
-      <c r="O43" s="71"/>
+      <c r="K43" s="131"/>
+      <c r="L43" s="131"/>
+      <c r="M43" s="131"/>
+      <c r="N43" s="131"/>
+      <c r="O43" s="132"/>
       <c r="P43" s="55"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
@@ -5038,15 +5071,15 @@
     </row>
     <row r="50" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I50" s="1"/>
-      <c r="J50" s="72" t="s">
+      <c r="J50" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="K50" s="73"/>
-      <c r="L50" s="73"/>
-      <c r="M50" s="73"/>
-      <c r="N50" s="73"/>
-      <c r="O50" s="73"/>
-      <c r="P50" s="74"/>
+      <c r="K50" s="103"/>
+      <c r="L50" s="103"/>
+      <c r="M50" s="103"/>
+      <c r="N50" s="103"/>
+      <c r="O50" s="103"/>
+      <c r="P50" s="104"/>
     </row>
     <row r="51" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I51" s="1"/>
@@ -5074,14 +5107,14 @@
     </row>
     <row r="52" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I52" s="1"/>
-      <c r="J52" s="75" t="s">
+      <c r="J52" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="76"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="77"/>
+      <c r="K52" s="106"/>
+      <c r="L52" s="106"/>
+      <c r="M52" s="106"/>
+      <c r="N52" s="106"/>
+      <c r="O52" s="107"/>
       <c r="P52" s="21"/>
     </row>
     <row r="53" spans="9:16" x14ac:dyDescent="0.2">
@@ -5182,14 +5215,14 @@
     </row>
     <row r="59" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I59" s="1"/>
-      <c r="J59" s="78" t="s">
+      <c r="J59" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="K59" s="79"/>
-      <c r="L59" s="79"/>
-      <c r="M59" s="79"/>
-      <c r="N59" s="79"/>
-      <c r="O59" s="80"/>
+      <c r="K59" s="109"/>
+      <c r="L59" s="109"/>
+      <c r="M59" s="109"/>
+      <c r="N59" s="109"/>
+      <c r="O59" s="110"/>
       <c r="P59" s="55"/>
     </row>
     <row r="60" spans="9:16" x14ac:dyDescent="0.2">
@@ -5290,14 +5323,14 @@
     </row>
     <row r="66" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I66" s="1"/>
-      <c r="J66" s="69" t="s">
+      <c r="J66" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="K66" s="70"/>
-      <c r="L66" s="70"/>
-      <c r="M66" s="70"/>
-      <c r="N66" s="70"/>
-      <c r="O66" s="71"/>
+      <c r="K66" s="131"/>
+      <c r="L66" s="131"/>
+      <c r="M66" s="131"/>
+      <c r="N66" s="131"/>
+      <c r="O66" s="132"/>
       <c r="P66" s="55"/>
     </row>
     <row r="67" spans="9:16" x14ac:dyDescent="0.2">
@@ -5398,15 +5431,15 @@
     </row>
     <row r="73" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I73" s="1"/>
-      <c r="J73" s="72" t="s">
+      <c r="J73" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="K73" s="73"/>
-      <c r="L73" s="73"/>
-      <c r="M73" s="73"/>
-      <c r="N73" s="73"/>
-      <c r="O73" s="73"/>
-      <c r="P73" s="74"/>
+      <c r="K73" s="103"/>
+      <c r="L73" s="103"/>
+      <c r="M73" s="103"/>
+      <c r="N73" s="103"/>
+      <c r="O73" s="103"/>
+      <c r="P73" s="104"/>
     </row>
     <row r="74" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I74" s="1"/>
@@ -5434,14 +5467,14 @@
     </row>
     <row r="75" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I75" s="1"/>
-      <c r="J75" s="75" t="s">
+      <c r="J75" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="K75" s="76"/>
-      <c r="L75" s="76"/>
-      <c r="M75" s="76"/>
-      <c r="N75" s="76"/>
-      <c r="O75" s="77"/>
+      <c r="K75" s="106"/>
+      <c r="L75" s="106"/>
+      <c r="M75" s="106"/>
+      <c r="N75" s="106"/>
+      <c r="O75" s="107"/>
       <c r="P75" s="21"/>
     </row>
     <row r="76" spans="9:16" x14ac:dyDescent="0.2">
@@ -5542,14 +5575,14 @@
     </row>
     <row r="82" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I82" s="1"/>
-      <c r="J82" s="78" t="s">
+      <c r="J82" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="K82" s="79"/>
-      <c r="L82" s="79"/>
-      <c r="M82" s="79"/>
-      <c r="N82" s="79"/>
-      <c r="O82" s="80"/>
+      <c r="K82" s="109"/>
+      <c r="L82" s="109"/>
+      <c r="M82" s="109"/>
+      <c r="N82" s="109"/>
+      <c r="O82" s="110"/>
       <c r="P82" s="55"/>
     </row>
     <row r="83" spans="9:16" x14ac:dyDescent="0.2">
@@ -5650,14 +5683,14 @@
     </row>
     <row r="89" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I89" s="1"/>
-      <c r="J89" s="69" t="s">
+      <c r="J89" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="K89" s="70"/>
-      <c r="L89" s="70"/>
-      <c r="M89" s="70"/>
-      <c r="N89" s="70"/>
-      <c r="O89" s="71"/>
+      <c r="K89" s="131"/>
+      <c r="L89" s="131"/>
+      <c r="M89" s="131"/>
+      <c r="N89" s="131"/>
+      <c r="O89" s="132"/>
       <c r="P89" s="55"/>
     </row>
     <row r="90" spans="9:16" x14ac:dyDescent="0.2">
@@ -5758,47 +5791,69 @@
     </row>
     <row r="96" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I96" s="1"/>
-      <c r="J96" s="64" t="s">
+      <c r="J96" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="K96" s="65"/>
-      <c r="L96" s="65"/>
-      <c r="M96" s="65"/>
-      <c r="N96" s="65"/>
-      <c r="O96" s="65"/>
-      <c r="P96" s="66"/>
+      <c r="K96" s="126"/>
+      <c r="L96" s="126"/>
+      <c r="M96" s="126"/>
+      <c r="N96" s="126"/>
+      <c r="O96" s="126"/>
+      <c r="P96" s="127"/>
     </row>
     <row r="97" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I97" s="1"/>
       <c r="J97" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="K97" s="62" t="s">
+      <c r="K97" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="L97" s="62"/>
-      <c r="M97" s="62"/>
-      <c r="N97" s="62"/>
-      <c r="O97" s="62"/>
-      <c r="P97" s="63"/>
+      <c r="L97" s="123"/>
+      <c r="M97" s="123"/>
+      <c r="N97" s="123"/>
+      <c r="O97" s="123"/>
+      <c r="P97" s="124"/>
     </row>
     <row r="98" spans="9:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J98" s="13"/>
-      <c r="K98" s="67"/>
-      <c r="L98" s="67"/>
-      <c r="M98" s="67"/>
-      <c r="N98" s="67"/>
-      <c r="O98" s="67"/>
-      <c r="P98" s="68"/>
+      <c r="K98" s="128"/>
+      <c r="L98" s="128"/>
+      <c r="M98" s="128"/>
+      <c r="N98" s="128"/>
+      <c r="O98" s="128"/>
+      <c r="P98" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="K97:P97"/>
+    <mergeCell ref="J96:P96"/>
+    <mergeCell ref="K98:P98"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="J43:O43"/>
+    <mergeCell ref="J82:O82"/>
+    <mergeCell ref="J89:O89"/>
+    <mergeCell ref="J59:O59"/>
+    <mergeCell ref="J66:O66"/>
+    <mergeCell ref="J73:P73"/>
+    <mergeCell ref="J75:O75"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J50:P50"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="B23:H23"/>
@@ -5815,40 +5870,18 @@
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="B32:H32"/>
     <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B38:H38"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="K97:P97"/>
-    <mergeCell ref="J96:P96"/>
-    <mergeCell ref="K98:P98"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="J43:O43"/>
-    <mergeCell ref="J82:O82"/>
-    <mergeCell ref="J89:O89"/>
-    <mergeCell ref="J59:O59"/>
-    <mergeCell ref="J66:O66"/>
-    <mergeCell ref="J73:P73"/>
-    <mergeCell ref="J75:O75"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J50:P50"/>
   </mergeCells>
   <conditionalFormatting sqref="H20:H22">
     <cfRule type="cellIs" dxfId="56" priority="2" operator="between">
@@ -5879,8 +5912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5901,52 +5934,52 @@
   <sheetData>
     <row r="1" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="133" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="130"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="135"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="64" t="s">
+      <c r="C3" s="127"/>
+      <c r="D3" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="66"/>
-      <c r="I3" s="64" t="s">
+      <c r="E3" s="126"/>
+      <c r="F3" s="127"/>
+      <c r="I3" s="125" t="s">
         <v>120</v>
       </c>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="66"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="127"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
@@ -6095,10 +6128,10 @@
       <c r="T7" s="36"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="66"/>
+      <c r="C8" s="127"/>
       <c r="D8" s="40" t="s">
         <v>16</v>
       </c>
@@ -6225,10 +6258,10 @@
       <c r="T11" s="36"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="66"/>
+      <c r="C12" s="127"/>
       <c r="D12" s="40" t="s">
         <v>24</v>
       </c>
@@ -6385,10 +6418,10 @@
       <c r="T17" s="36"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="66"/>
+      <c r="C18" s="127"/>
       <c r="I18" s="40" t="s">
         <v>144</v>
       </c>
@@ -6503,15 +6536,15 @@
       <c r="T22" s="39"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="125" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="135"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="63"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
@@ -6532,7 +6565,7 @@
       <c r="G24" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="H24" s="135"/>
+      <c r="H24" s="63"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="40">
@@ -6555,7 +6588,7 @@
         <f>(COUNTA(I5:I22)-COUNTBLANK(J5:J22)) - F25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="134"/>
+      <c r="H25" s="62"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="40">
@@ -6578,7 +6611,7 @@
         <f>G25-F26</f>
         <v>0</v>
       </c>
-      <c r="H26" s="134"/>
+      <c r="H26" s="62"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="40">
@@ -6601,7 +6634,7 @@
         <f t="shared" ref="G27:G31" si="3">G26-F27</f>
         <v>0</v>
       </c>
-      <c r="H27" s="134"/>
+      <c r="H27" s="62"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="40">
@@ -6624,7 +6657,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H28" s="134"/>
+      <c r="H28" s="62"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="40">
@@ -6647,7 +6680,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H29" s="134"/>
+      <c r="H29" s="62"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="40">
@@ -6670,7 +6703,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H30" s="134"/>
+      <c r="H30" s="62"/>
     </row>
     <row r="31" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="42">
@@ -6693,7 +6726,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H31" s="134"/>
+      <c r="H31" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6796,52 +6829,52 @@
   <sheetData>
     <row r="1" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="133" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="130"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="135"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="64" t="s">
+      <c r="C3" s="127"/>
+      <c r="D3" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="66"/>
-      <c r="I3" s="64" t="s">
+      <c r="E3" s="126"/>
+      <c r="F3" s="127"/>
+      <c r="I3" s="125" t="s">
         <v>120</v>
       </c>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="66"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="127"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
@@ -6990,10 +7023,10 @@
       <c r="T7" s="36"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="66"/>
+      <c r="C8" s="127"/>
       <c r="D8" s="40" t="s">
         <v>16</v>
       </c>
@@ -7120,10 +7153,10 @@
       <c r="T11" s="36"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="66"/>
+      <c r="C12" s="127"/>
       <c r="D12" s="40" t="s">
         <v>24</v>
       </c>
@@ -7280,10 +7313,10 @@
       <c r="T17" s="36"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="66"/>
+      <c r="C18" s="127"/>
       <c r="I18" s="40" t="s">
         <v>144</v>
       </c>
@@ -7398,15 +7431,15 @@
       <c r="T22" s="39"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="125" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="135"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="63"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
@@ -7427,7 +7460,7 @@
       <c r="G24" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="H24" s="135"/>
+      <c r="H24" s="63"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="40">
@@ -7450,7 +7483,7 @@
         <f>(COUNTA(I5:I22)-COUNTBLANK(J5:J22)) - F25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="134"/>
+      <c r="H25" s="62"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="40">
@@ -7473,7 +7506,7 @@
         <f>G25-F26</f>
         <v>0</v>
       </c>
-      <c r="H26" s="134"/>
+      <c r="H26" s="62"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="40">
@@ -7496,7 +7529,7 @@
         <f t="shared" ref="G27:G31" si="3">G26-F27</f>
         <v>0</v>
       </c>
-      <c r="H27" s="134"/>
+      <c r="H27" s="62"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="40">
@@ -7519,7 +7552,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H28" s="134"/>
+      <c r="H28" s="62"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="40">
@@ -7542,7 +7575,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H29" s="134"/>
+      <c r="H29" s="62"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="40">
@@ -7565,7 +7598,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H30" s="134"/>
+      <c r="H30" s="62"/>
     </row>
     <row r="31" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="42">
@@ -7588,7 +7621,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H31" s="134"/>
+      <c r="H31" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7688,52 +7721,52 @@
   <sheetData>
     <row r="1" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="133" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="130"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="135"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="64" t="s">
+      <c r="C3" s="127"/>
+      <c r="D3" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="66"/>
-      <c r="I3" s="64" t="s">
+      <c r="E3" s="126"/>
+      <c r="F3" s="127"/>
+      <c r="I3" s="125" t="s">
         <v>120</v>
       </c>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="66"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="127"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
@@ -7882,10 +7915,10 @@
       <c r="T7" s="36"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="66"/>
+      <c r="C8" s="127"/>
       <c r="D8" s="40" t="s">
         <v>16</v>
       </c>
@@ -8012,10 +8045,10 @@
       <c r="T11" s="36"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="66"/>
+      <c r="C12" s="127"/>
       <c r="D12" s="40" t="s">
         <v>24</v>
       </c>
@@ -8172,10 +8205,10 @@
       <c r="T17" s="36"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="66"/>
+      <c r="C18" s="127"/>
       <c r="I18" s="40" t="s">
         <v>144</v>
       </c>
@@ -8290,15 +8323,15 @@
       <c r="T22" s="39"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="125" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="135"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="63"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
@@ -8319,7 +8352,7 @@
       <c r="G24" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="H24" s="135"/>
+      <c r="H24" s="63"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="40">
@@ -8342,7 +8375,7 @@
         <f>(COUNTA(I5:I22)-COUNTBLANK(J5:J22)) - F25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="134"/>
+      <c r="H25" s="62"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="40">
@@ -8365,7 +8398,7 @@
         <f>G25-F26</f>
         <v>0</v>
       </c>
-      <c r="H26" s="134"/>
+      <c r="H26" s="62"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="40">
@@ -8388,7 +8421,7 @@
         <f t="shared" ref="G27:G31" si="3">G26-F27</f>
         <v>0</v>
       </c>
-      <c r="H27" s="134"/>
+      <c r="H27" s="62"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="40">
@@ -8411,7 +8444,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H28" s="134"/>
+      <c r="H28" s="62"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="40">
@@ -8434,7 +8467,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H29" s="134"/>
+      <c r="H29" s="62"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="40">
@@ -8457,7 +8490,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H30" s="134"/>
+      <c r="H30" s="62"/>
     </row>
     <row r="31" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="42">
@@ -8480,7 +8513,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H31" s="134"/>
+      <c r="H31" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8580,52 +8613,52 @@
   <sheetData>
     <row r="1" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="133" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="130"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="135"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="64" t="s">
+      <c r="C3" s="127"/>
+      <c r="D3" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="66"/>
-      <c r="I3" s="64" t="s">
+      <c r="E3" s="126"/>
+      <c r="F3" s="127"/>
+      <c r="I3" s="125" t="s">
         <v>120</v>
       </c>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="66"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="127"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
@@ -8774,10 +8807,10 @@
       <c r="T7" s="36"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="66"/>
+      <c r="C8" s="127"/>
       <c r="D8" s="40" t="s">
         <v>16</v>
       </c>
@@ -8904,10 +8937,10 @@
       <c r="T11" s="36"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="66"/>
+      <c r="C12" s="127"/>
       <c r="D12" s="40" t="s">
         <v>24</v>
       </c>
@@ -9064,10 +9097,10 @@
       <c r="T17" s="36"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="66"/>
+      <c r="C18" s="127"/>
       <c r="I18" s="40" t="s">
         <v>144</v>
       </c>
@@ -9182,15 +9215,15 @@
       <c r="T22" s="39"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="125" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="135"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="63"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
@@ -9211,7 +9244,7 @@
       <c r="G24" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="H24" s="135"/>
+      <c r="H24" s="63"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="40">
@@ -9234,7 +9267,7 @@
         <f>(COUNTA(I5:I22)-COUNTBLANK(J5:J22)) - F25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="134"/>
+      <c r="H25" s="62"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="40">
@@ -9257,7 +9290,7 @@
         <f>G25-F26</f>
         <v>0</v>
       </c>
-      <c r="H26" s="134"/>
+      <c r="H26" s="62"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="40">
@@ -9280,7 +9313,7 @@
         <f t="shared" ref="G27:G31" si="3">G26-F27</f>
         <v>0</v>
       </c>
-      <c r="H27" s="134"/>
+      <c r="H27" s="62"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="40">
@@ -9303,7 +9336,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H28" s="134"/>
+      <c r="H28" s="62"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="40">
@@ -9326,7 +9359,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H29" s="134"/>
+      <c r="H29" s="62"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="40">
@@ -9349,7 +9382,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H30" s="134"/>
+      <c r="H30" s="62"/>
     </row>
     <row r="31" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="42">
@@ -9372,7 +9405,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H31" s="134"/>
+      <c r="H31" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="8">
